--- a/template/Cisco_UCS/UCSチェックシート.xlsx
+++ b/template/Cisco_UCS/UCSチェックシート.xlsx
@@ -21,17 +21,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1548197032" val="944" rev="123" revOS="4"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1548197032" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1548197032" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1548197032"/>
+      <pm:revision xmlns:pm="smNativeData" day="1548283617" val="944" rev="123" revOS="4"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1548283617" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1548283617" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1548283617"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="126">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -327,61 +327,46 @@
     <t>Y</t>
   </si>
   <si>
-    <t>inventory</t>
-  </si>
-  <si>
-    <t>システムステータス</t>
-  </si>
-  <si>
-    <t>'system health subsystem show' コマンドで各モジュールのステータス検索</t>
-  </si>
-  <si>
-    <t>chassis</t>
-  </si>
-  <si>
-    <t>シャーシ―</t>
+    <t>bios</t>
+  </si>
+  <si>
+    <t>BIOS情報</t>
+  </si>
+  <si>
+    <t>'show bios' コマンドで各モジュールのBIOS情報検索</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>システム</t>
   </si>
   <si>
     <t>'storage failover show' コマンドで各ノードのHAステータス検索</t>
   </si>
   <si>
-    <t>network_interface</t>
-  </si>
-  <si>
-    <t>ネットワーク情報</t>
-  </si>
-  <si>
-    <t>'network interface show' コマンドで IP 情報検索</t>
-  </si>
-  <si>
-    <t>アグリゲートディスク構成情報</t>
-  </si>
-  <si>
-    <t>'aggr show -owner-name *' コマンドでアグリゲートディスク情報検索</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>ボリューム情報</t>
-  </si>
-  <si>
-    <t>'df' コマンドで、ディスクボリューム情報を検索</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>バージョン</t>
+    <t>system.Name</t>
+  </si>
+  <si>
+    <t>system.Mode</t>
+  </si>
+  <si>
+    <t>システムモード</t>
+  </si>
+  <si>
+    <t>storage</t>
+  </si>
+  <si>
+    <t>内臓ディスク</t>
   </si>
   <si>
     <t>'version' コマンドで OSバージョン検索</t>
   </si>
   <si>
-    <t>vserver</t>
-  </si>
-  <si>
-    <t>仮想サーバ</t>
+    <t>snmp</t>
+  </si>
+  <si>
+    <t>SNMP</t>
   </si>
   <si>
     <t>Y</t>
@@ -390,55 +375,13 @@
     <t>'vserver show' コマンドで仮想サーバ情報検索</t>
   </si>
   <si>
-    <t>memory</t>
-  </si>
-  <si>
-    <t>メモリー</t>
+    <t>ntp</t>
+  </si>
+  <si>
+    <t>NTP</t>
   </si>
   <si>
     <t>'system controller memory dimm show'　コマンドで、メモリ構成情報検索</t>
-  </si>
-  <si>
-    <t>license</t>
-  </si>
-  <si>
-    <t>ライセンス</t>
-  </si>
-  <si>
-    <t>'system license show' コマンドでライセンス情報検索</t>
-  </si>
-  <si>
-    <t>processor</t>
-  </si>
-  <si>
-    <t>サービスプロセッサー</t>
-  </si>
-  <si>
-    <t>'system service-processor show' コマンドでプロセッサ構成検索</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>'volume show' コマンドでボリューム情報検索</t>
-  </si>
-  <si>
-    <t>snmp</t>
-  </si>
-  <si>
-    <t>SNMPパラメーター</t>
-  </si>
-  <si>
-    <t>'system snmp show' コマンドで SNMP Trap情報検索</t>
-  </si>
-  <si>
-    <t>ntp</t>
-  </si>
-  <si>
-    <t>NTP構成</t>
-  </si>
-  <si>
-    <t>'cluster time-service ntp server show' コマンドで NTP 構成情報検索</t>
   </si>
   <si>
     <t>Eternus</t>
@@ -497,7 +440,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1548197032" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1548283617" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -512,7 +455,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1548197032" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1548283617" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -528,7 +471,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1548197032" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1548283617" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -543,7 +486,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1548197032" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1548283617" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -559,7 +502,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1548197032" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1548283617" ulstyle="none" kern="1">
             <pm:latin face="Meiryo UI" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -575,7 +518,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1548197032" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1548283617" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="Meiryo UI" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -592,7 +535,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1548197032" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1548283617" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="Meiryo UI" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -614,7 +557,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1548197032" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1548283617" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -628,7 +571,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1548197032" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1548283617" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -639,7 +582,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1548197032" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1548283617" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -650,7 +593,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1548197032" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1548283617" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -661,7 +604,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1548197032" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1548283617" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -672,7 +615,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1548197032" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1548283617" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -683,7 +626,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1548197032" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1548283617" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -694,7 +637,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1548197032" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1548283617" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -705,7 +648,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1548197032" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1548283617" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -716,7 +659,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1548197032" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1548283617" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -727,7 +670,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1548197032" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1548283617" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -738,7 +681,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1548197032" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1548283617" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -749,7 +692,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1548197032" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1548283617" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -760,7 +703,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1548197032" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1548283617" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -771,7 +714,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1548197032" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1548283617" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -782,7 +725,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1548197032" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1548283617" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -793,7 +736,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1548197032" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1548283617" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -815,7 +758,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1548197032"/>
+          <pm:border xmlns:pm="smNativeData" id="1548283617"/>
         </ext>
       </extLst>
     </border>
@@ -834,7 +777,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1548197032">
+          <pm:border xmlns:pm="smNativeData" id="1548283617">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -858,7 +801,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1548197032">
+          <pm:border xmlns:pm="smNativeData" id="1548283617">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -882,7 +825,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1548197032"/>
+          <pm:border xmlns:pm="smNativeData" id="1548283617"/>
         </ext>
       </extLst>
     </border>
@@ -901,7 +844,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1548197032">
+          <pm:border xmlns:pm="smNativeData" id="1548283617">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -925,7 +868,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1548197032">
+          <pm:border xmlns:pm="smNativeData" id="1548283617">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -949,7 +892,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1548197032">
+          <pm:border xmlns:pm="smNativeData" id="1548283617">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -971,7 +914,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1548197032">
+          <pm:border xmlns:pm="smNativeData" id="1548283617">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -992,7 +935,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1548197032">
+          <pm:border xmlns:pm="smNativeData" id="1548283617">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1014,7 +957,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1548197032">
+          <pm:border xmlns:pm="smNativeData" id="1548283617">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1036,7 +979,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1548197032">
+          <pm:border xmlns:pm="smNativeData" id="1548283617">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1057,7 +1000,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1548197032">
+          <pm:border xmlns:pm="smNativeData" id="1548283617">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1079,7 +1022,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1548197032">
+          <pm:border xmlns:pm="smNativeData" id="1548283617">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1102,7 +1045,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1548197032">
+          <pm:border xmlns:pm="smNativeData" id="1548283617">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1124,7 +1067,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1548197032">
+          <pm:border xmlns:pm="smNativeData" id="1548283617">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1147,7 +1090,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1548197032">
+          <pm:border xmlns:pm="smNativeData" id="1548283617">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1168,7 +1111,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1548197032">
+          <pm:border xmlns:pm="smNativeData" id="1548283617">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1189,7 +1132,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1548197032">
+          <pm:border xmlns:pm="smNativeData" id="1548283617">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1213,7 +1156,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1548197032"/>
+          <pm:border xmlns:pm="smNativeData" id="1548283617"/>
         </ext>
       </extLst>
     </border>
@@ -1244,7 +1187,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1360,6 +1303,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -1382,10 +1334,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1548197032" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1548283617" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1548197032" count="3">
+      <pm:colors xmlns:pm="smNativeData" id="1548283617" count="3">
         <pm:color name="色 24" rgb="3F3F3F"/>
         <pm:color name="色 25" rgb="CCFFFF"/>
         <pm:color name="色 26" rgb="F2F2F2"/>
@@ -3031,7 +2983,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1548197032" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="1"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1548283617" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="1"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3042,16 +2994,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1548197032" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1548197032" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1548197032" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1548197032" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1548283617" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1548283617" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1548283617" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1548283617" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1548197032" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1548283617" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3396,7 +3348,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1548197032" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1548283617" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3407,16 +3359,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1548197032" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1548197032" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1548197032" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1548197032" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1548283617" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1548283617" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1548283617" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1548283617" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1548197032" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1548283617" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3727,7 +3679,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1548197032" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1548283617" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3736,16 +3688,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1548197032" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1548197032" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1548197032" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1548197032" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1548283617" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1548283617" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1548283617" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1548283617" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1548197032" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1548283617" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3834,7 +3786,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1548197032" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1548283617" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3843,16 +3795,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1548197032" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1548197032" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1548197032" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1548197032" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1548283617" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1548283617" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1548283617" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1548283617" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1548197032" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1548283617" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3863,10 +3815,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" zoomScale="80" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -3941,7 +3893,7 @@
       <c r="E5" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="42" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3958,71 +3910,55 @@
       <c r="D6" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="39" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="42" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="12" t="s">
-        <v>97</v>
-      </c>
+      <c r="A7" s="12"/>
       <c r="B7" s="12" t="s">
         <v>104</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="40" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="39"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>107</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>108</v>
-      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="39"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
         <v>97</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>111</v>
+      <c r="E9" s="12"/>
+      <c r="F9" s="43" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4030,17 +3966,19 @@
         <v>97</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="40" t="s">
-        <v>114</v>
+      <c r="E10" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4048,146 +3986,66 @@
         <v>97</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>118</v>
+        <v>97</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>121</v>
-      </c>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="41"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>124</v>
-      </c>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="41"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>127</v>
-      </c>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="41"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>129</v>
-      </c>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="41"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>135</v>
-      </c>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="40"/>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1548197032" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1548283617" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4196,16 +4054,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1548197032" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1548197032" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1548197032" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1548197032" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1548283617" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1548283617" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1548283617" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1548283617" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1548197032" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1548283617" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4237,13 +4095,13 @@
         <v>91</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4251,13 +4109,13 @@
         <v>30</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4265,13 +4123,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4282,7 +4140,7 @@
       <c r="B4" s="12"/>
       <c r="C4" s="16"/>
       <c r="D4" s="12" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4293,7 +4151,7 @@
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5173,7 +5031,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1548197032" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1548283617" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5184,16 +5042,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1548197032" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1548197032" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1548197032" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1548197032" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1548283617" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1548283617" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1548283617" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1548283617" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1548197032" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1548283617" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/template/Cisco_UCS/UCSチェックシート.xlsx
+++ b/template/Cisco_UCS/UCSチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="テンプレート(CiscoUCS)" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$N$72</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$N$74</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,17 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="202">
   <si>
     <t>0. はじめに</t>
   </si>
   <si>
-    <t>* NetApp Data ONTAP ストレージの構成情報を採取します。</t>
-  </si>
-  <si>
-    <t>* .\template\NetApp が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します。</t>
-  </si>
-  <si>
     <t>1. プロジェクトディレクトリの作成と移動</t>
   </si>
   <si>
@@ -55,9 +49,6 @@
     <t>2. 検査シート編集</t>
   </si>
   <si>
-    <t>「.\template\NetApp\DataONTAPチェックシート.xlsx」(本ファイル)を開きます。</t>
-  </si>
-  <si>
     <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
   </si>
   <si>
@@ -151,15 +142,6 @@
     <t>compare_server</t>
   </si>
   <si>
-    <t>NetApp</t>
-  </si>
-  <si>
-    <t>netapp1</t>
-  </si>
-  <si>
-    <t>10.20.2.52</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
@@ -169,15 +151,9 @@
     <t>設定ファイルを編集します。</t>
   </si>
   <si>
-    <t>notepad++ .\template\NetApp\config_netapp.groovy</t>
-  </si>
-  <si>
     <t>以下の各検査対象の接続情報を編集します。</t>
   </si>
   <si>
-    <t>// NetApp 接続情報</t>
-  </si>
-  <si>
     <t>account.NetApp.Test.user      = 'admin'</t>
   </si>
   <si>
@@ -190,9 +166,6 @@
     <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
   </si>
   <si>
-    <t>getconfig -c .\template\NetApp\config_netapp.groovy</t>
-  </si>
-  <si>
     <t>5. 実行結果の参照とコミット</t>
   </si>
   <si>
@@ -202,9 +175,6 @@
     <t>dir .\build</t>
   </si>
   <si>
-    <t>保存された「サーバチェックシート_{日時}.xlsx」を開いてインベントリ収集結果を確認します。</t>
-  </si>
-  <si>
     <t>結果の確認ができたら、インベントリ収集結果をコミットをします。</t>
   </si>
   <si>
@@ -238,12 +208,6 @@
     <t>接続IP</t>
   </si>
   <si>
-    <t>システム名</t>
-  </si>
-  <si>
-    <t>モデル名</t>
-  </si>
-  <si>
     <t>ディスク構成</t>
   </si>
   <si>
@@ -280,21 +244,6 @@
     <t>_base</t>
   </si>
   <si>
-    <t>型番</t>
-  </si>
-  <si>
-    <t>_redmine:ストレージ</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>aggregate_status</t>
-  </si>
-  <si>
-    <t>NetAppDataONTAP</t>
-  </si>
-  <si>
     <t>検査対象</t>
   </si>
   <si>
@@ -343,95 +292,74 @@
     <t>snmp</t>
   </si>
   <si>
-    <t>SNMP</t>
-  </si>
-  <si>
     <t>ntp</t>
   </si>
   <si>
     <t>NTP</t>
   </si>
   <si>
-    <t>Eternus</t>
-  </si>
-  <si>
-    <t>enclosure_status</t>
-  </si>
-  <si>
     <t>network:k</t>
   </si>
   <si>
-    <t>snmp_trap:k</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
     <t>${ip}</t>
   </si>
   <si>
-    <t>v1</t>
-  </si>
-  <si>
     <t>10.20.5.1</t>
   </si>
   <si>
-    <t>public</t>
-  </si>
-  <si>
     <t>cimc</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>CIMC情報</t>
     <rPh sb="4" eb="6">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>'show cimc detail' コマンドで CIMC(Cisco Intelligent Management Controller)情報検索</t>
     <rPh sb="70" eb="72">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>cpu</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>プロセッサ情報</t>
     <rPh sb="5" eb="7">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>'show cpu detail' コマンドでプロセッサ情報検索</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>memory</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>メモリ情報</t>
     <rPh sb="3" eb="5">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>'show dimm-summary' コマンドでメモリ情報検索</t>
     <rPh sb="28" eb="30">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>hdd</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>HDD構成情報</t>
@@ -441,11 +369,11 @@
     <rPh sb="5" eb="7">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>'show hdd-pid detail' コマンドでHDD 製品情報検索</t>
@@ -455,7 +383,7 @@
     <rPh sb="33" eb="35">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>物理ストレージ情報</t>
@@ -465,7 +393,7 @@
     <rPh sb="7" eb="9">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>'show physical-drive detail' コマンドで物理ディスク情報検索</t>
@@ -475,47 +403,47 @@
     <rPh sb="40" eb="42">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>RAID情報</t>
     <rPh sb="4" eb="6">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>'show virtual-drive detail' コマンドでRAID情報検索</t>
     <rPh sb="37" eb="39">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>network</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ネットワーク情報</t>
     <rPh sb="6" eb="8">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>'show cimc/network detail' コマンドで ネットワーク情報検索</t>
     <rPh sb="39" eb="41">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>'show /cimc/network/ntp detail'　コマンドで、NTP構成情報検索</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>snmp_trap</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>physical_drive</t>
@@ -528,61 +456,55 @@
     <rPh sb="8" eb="10">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>'show snmp detail'　コマンドで、SNMP構成情報検索</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>'show snmp/trap-destinations detail'　コマンドで、SNMPトラップ情報検索</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>secure-boot</t>
-  </si>
-  <si>
-    <t>boot-mode</t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>timezone</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>storageadapter</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ストレージアダプタ情報</t>
     <rPh sb="9" eb="11">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>'show storageadapter detail' コマンドでストレージアダプタ情報検索</t>
     <rPh sb="43" eb="45">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>memoryspeed</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>CIMC情報：タイムゾーン</t>
     <rPh sb="4" eb="6">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>BISO情報：セキュアブート</t>
     <rPh sb="4" eb="6">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>BISO情報：ブートモード</t>
@@ -592,55 +514,281 @@
     <rPh sb="3" eb="5">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>snmp-port</t>
-  </si>
-  <si>
-    <t>community-str</t>
-  </si>
-  <si>
-    <t>community-access</t>
-  </si>
-  <si>
-    <t>SNMP：ポート</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>SNMP：コミュニティ名</t>
-    <rPh sb="11" eb="12">
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>NTP：サーバ１</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>NTP：サーバ２</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ucs1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>OS名</t>
+  </si>
+  <si>
+    <t>アーキテクチャ</t>
+  </si>
+  <si>
+    <t>CPU数</t>
+  </si>
+  <si>
+    <t>CPUコア数</t>
+  </si>
+  <si>
+    <t>CPUクロック数</t>
+  </si>
+  <si>
+    <t>MEM容量</t>
+  </si>
+  <si>
+    <t>内臓ディスク</t>
+  </si>
+  <si>
+    <t>ボンディング構成</t>
+  </si>
+  <si>
+    <t>管理LAN</t>
+  </si>
+  <si>
+    <t>コンソール</t>
+  </si>
+  <si>
+    <t>パッケージ</t>
+  </si>
+  <si>
+    <t>_redmine:IAサーバ</t>
+  </si>
+  <si>
+    <t>os</t>
+  </si>
+  <si>
+    <t>arch</t>
+  </si>
+  <si>
+    <t>cpu_total</t>
+  </si>
+  <si>
+    <t>cpu_core</t>
+  </si>
+  <si>
+    <t>mhz</t>
+  </si>
+  <si>
+    <t>mem_total</t>
+  </si>
+  <si>
+    <t>filesystem</t>
+  </si>
+  <si>
+    <t>net_ip</t>
+  </si>
+  <si>
+    <t>net_subnet</t>
+  </si>
+  <si>
+    <t>net_route</t>
+  </si>
+  <si>
+    <t>net_bond</t>
+  </si>
+  <si>
+    <t>runlevel.console</t>
+  </si>
+  <si>
+    <t>packages.requirements</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>os_caption</t>
+  </si>
+  <si>
+    <t>os_architecture</t>
+  </si>
+  <si>
+    <t>cpu_socket</t>
+  </si>
+  <si>
+    <t>visible_memory</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>network.subnet</t>
+  </si>
+  <si>
+    <t>network.gw</t>
+  </si>
+  <si>
+    <t>nic_teaming</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Nic</t>
+  </si>
+  <si>
+    <t>iLO</t>
+  </si>
+  <si>
+    <t>disk</t>
+  </si>
+  <si>
+    <t>Primergy</t>
+  </si>
+  <si>
+    <t>network</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CiscoUCS</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>network</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>SNMP情報</t>
+  </si>
+  <si>
+    <t>SNMP情報：ポート</t>
+  </si>
+  <si>
+    <t>SNMP情報：コミュニティ名</t>
+    <rPh sb="13" eb="14">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>SNMP：アクセス</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>server-1</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>server-2</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>NTP：サーバ１</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>NTP：サーバ２</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>SNMP情報：アクセス</t>
+  </si>
+  <si>
+    <t>ntp.server-1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ntp.server-2</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>snmp.snmp-port</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>snmp.community-str</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>snmp.community-access</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>bios.secure-boot</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>bios.boot-mode</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CiscoUCS</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>192.168.10.50</t>
+  </si>
+  <si>
+    <t>snmp_trap:k</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>snmp:k</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>public</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>* Cisco UCS サーバ CIMC(Cisco Intelligent Management Controller) の構成情報を採取します。</t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ucs1</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>192.168.10.50</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>102.168.10.50</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>notepad++ .\template\Cisco_UCS\config_ucs.groovy</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>* .\template\Cisco_UCS が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>「.\template\Cisco_UCS\UCSチェックシート.xlsx」(本ファイル)を開きます。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>// CiscoUCS 接続情報</t>
+  </si>
+  <si>
+    <t>account.CiscoUCS.Test.use_emulator = false    // エミュレータソフトを使用する場合はtrue</t>
+    <rPh sb="59" eb="61">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>getconfig -c .\template\Cisco_UCS\config_ucs.groovy</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>保存された「UCSチェックシート_{日時}.xlsx」を開いてインベントリ収集結果を確認します。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Redmine プラグインデータへのロード</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Redmine チケット登録</t>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>getconfig -r {Redmineプロジェクト名}</t>
+    <rPh sb="27" eb="28">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -653,7 +801,7 @@
     <numFmt numFmtId="178" formatCode="_-&quot;¥&quot;* #,##0.00_-;\-&quot;¥&quot;* #,##0.00_-;_-&quot;¥&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;¥&quot;* #,##0_-;\-&quot;¥&quot;* #,##0_-;_-&quot;¥&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -688,21 +836,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -715,8 +848,32 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -726,24 +883,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -819,8 +958,37 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -877,21 +1045,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1027,8 +1180,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1050,11 +1246,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1088,95 +1287,111 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="7" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="7" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="パーセント" xfId="5" builtinId="5" customBuiltin="1"/>
     <cellStyle name="桁区切り" xfId="2" builtinId="6" customBuiltin="1"/>
     <cellStyle name="桁区切り [0.00]" xfId="1" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="出力" xfId="8" builtinId="21"/>
     <cellStyle name="説明文" xfId="6" builtinId="53" customBuiltin="1"/>
     <cellStyle name="通貨" xfId="4" builtinId="7" customBuiltin="1"/>
     <cellStyle name="通貨 [0.00]" xfId="3" builtinId="4" customBuiltin="1"/>
@@ -1496,9 +1711,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1511,1406 +1726,1499 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="28" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="28" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28" t="s">
+      <c r="D16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28" t="s">
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28" t="s">
+      <c r="D17" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28" t="s">
+      <c r="D18" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28" t="s">
+      <c r="D19" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28" t="s">
+      <c r="D20" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28" t="s">
+      <c r="D21" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28" t="s">
+      <c r="D22" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28" t="s">
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+    </row>
+    <row r="26" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="21"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+    </row>
+    <row r="27" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="21"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28" t="s">
+      <c r="E27" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-    </row>
-    <row r="26" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="28"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="37" t="s">
+      <c r="F27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-    </row>
-    <row r="27" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="28"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31" t="s">
+      <c r="G27" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+    </row>
+    <row r="28" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="21"/>
+      <c r="B28" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+    </row>
+    <row r="29" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="21"/>
+      <c r="B29" s="24">
+        <v>1</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+    </row>
+    <row r="30" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="21"/>
+      <c r="B30" s="24">
+        <v>2</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+    </row>
+    <row r="31" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="21"/>
+      <c r="B31" s="24">
+        <v>3</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+    </row>
+    <row r="32" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="21"/>
+      <c r="B32" s="24">
+        <v>4</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+    </row>
+    <row r="33" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="21"/>
+      <c r="B33" s="24">
+        <v>5</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+    </row>
+    <row r="34" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="21"/>
+      <c r="B34" s="24">
+        <v>6</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+    </row>
+    <row r="35" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="21"/>
+      <c r="B35" s="24">
+        <v>7</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+    </row>
+    <row r="36" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="21"/>
+      <c r="B36" s="24">
         <v>8</v>
       </c>
-      <c r="D27" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="I27" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-    </row>
-    <row r="28" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="28"/>
-      <c r="B28" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="H28" s="31" t="s">
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+    </row>
+    <row r="37" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="21"/>
+      <c r="B37" s="24">
+        <v>9</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+    </row>
+    <row r="38" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A38" s="21"/>
+      <c r="B38" s="24">
+        <v>10</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A40" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="31" t="s">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-    </row>
-    <row r="29" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="28"/>
-      <c r="B29" s="31">
-        <v>1</v>
-      </c>
-      <c r="C29" s="31" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="21"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A46" s="21"/>
+      <c r="B46" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="21"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="21"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="21"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="21"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="31" t="s">
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="21"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A54" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-    </row>
-    <row r="30" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="28"/>
-      <c r="B30" s="31">
-        <v>2</v>
-      </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-    </row>
-    <row r="31" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="28"/>
-      <c r="B31" s="31">
-        <v>3</v>
-      </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-    </row>
-    <row r="32" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="28"/>
-      <c r="B32" s="31">
-        <v>4</v>
-      </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-    </row>
-    <row r="33" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="28"/>
-      <c r="B33" s="31">
-        <v>5</v>
-      </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-    </row>
-    <row r="34" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A34" s="28"/>
-      <c r="B34" s="31">
-        <v>6</v>
-      </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-    </row>
-    <row r="35" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="28"/>
-      <c r="B35" s="31">
-        <v>7</v>
-      </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-    </row>
-    <row r="36" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="28"/>
-      <c r="B36" s="31">
-        <v>8</v>
-      </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-    </row>
-    <row r="37" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="28"/>
-      <c r="B37" s="31">
-        <v>9</v>
-      </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-    </row>
-    <row r="38" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="28"/>
-      <c r="B38" s="31">
-        <v>10</v>
-      </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" s="28" t="s">
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A56" s="21"/>
+      <c r="B56" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28" t="s">
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="21"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A60" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="24" t="s">
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A62" s="21"/>
+      <c r="B62" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="28"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28" t="s">
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="18" t="s">
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="21"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A66" s="21"/>
+      <c r="B66" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A67" s="21"/>
+      <c r="B67" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="28"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="29"/>
-      <c r="O49" s="28"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="27" t="s">
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="28"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="21" t="s">
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="21"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A71" s="21"/>
+      <c r="B71" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="28"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="28"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" s="28" t="s">
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="21"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="21"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="28"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28" t="s">
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="21"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
+      <c r="L75" s="42"/>
+      <c r="M75" s="42"/>
+      <c r="N75" s="43"/>
+      <c r="O75" s="21"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="21"/>
+      <c r="O76" s="21"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A77" s="21"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="21"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A78" s="21"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="43"/>
+      <c r="O78" s="21"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B80" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="28"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A56" s="28"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="28"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="24" t="s">
+      <c r="C80" t="s">
         <v>51</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="28"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A58" s="28"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="28"/>
-      <c r="M58" s="28"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="28"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A59" s="28" t="s">
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C82" t="s">
         <v>52</v>
-      </c>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A60" s="28"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="28"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="28"/>
-      <c r="M61" s="28"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="28"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62" s="28"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="28"/>
-      <c r="M62" s="28"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="28"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="28"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="25"/>
-      <c r="N63" s="26"/>
-      <c r="O63" s="28"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A64" s="28"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="28"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A65" s="28"/>
-      <c r="B65" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="28"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="28"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66" s="28"/>
-      <c r="B66" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="28"/>
-      <c r="M66" s="28"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="28"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="28"/>
-      <c r="M67" s="28"/>
-      <c r="N67" s="28"/>
-      <c r="O67" s="28"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="25"/>
-      <c r="M68" s="25"/>
-      <c r="N68" s="26"/>
-      <c r="O68" s="28"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="28"/>
-      <c r="M69" s="28"/>
-      <c r="N69" s="28"/>
-      <c r="O69" s="28"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="28"/>
-      <c r="L70" s="28"/>
-      <c r="M70" s="28"/>
-      <c r="N70" s="28"/>
-      <c r="O70" s="28"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A71" s="28"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="28"/>
-      <c r="M71" s="28"/>
-      <c r="N71" s="28"/>
-      <c r="O71" s="28"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A72" s="28"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="25"/>
-      <c r="M72" s="25"/>
-      <c r="N72" s="26"/>
-      <c r="O72" s="28"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="28"/>
-      <c r="M73" s="28"/>
-      <c r="N73" s="28"/>
-      <c r="O73" s="28"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B75" t="s">
-        <v>60</v>
-      </c>
-      <c r="C75" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C77" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C26:I26"/>
   </mergeCells>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="88" fitToWidth="0" fitToHeight="0" orientation="landscape" cellComments="asDisplayed"/>
   <headerFooter>
@@ -2932,8 +3240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2949,64 +3257,64 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
-      <c r="B1" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
@@ -3014,18 +3322,20 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
@@ -3261,7 +3571,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter>
@@ -3273,7 +3583,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>利用手順!$C$76:$C$77</xm:f>
+            <xm:f>利用手順!$C$81:$C$82</xm:f>
           </x14:formula1>
           <xm:sqref>B4:B23</xm:sqref>
         </x14:dataValidation>
@@ -3291,304 +3601,534 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ15"/>
+  <dimension ref="A3:W16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="6" width="13.375" style="1" customWidth="1"/>
-    <col min="7" max="10" width="31.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="28.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.375" style="1" customWidth="1"/>
-    <col min="14" max="1024" width="9" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="2" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="10" width="12.75" customWidth="1"/>
+    <col min="11" max="15" width="21.25" customWidth="1"/>
+    <col min="16" max="16" width="29.125" customWidth="1"/>
+    <col min="17" max="18" width="20.875" customWidth="1"/>
+    <col min="19" max="19" width="13.75" customWidth="1"/>
+    <col min="20" max="20" width="29.125" customWidth="1"/>
+    <col min="21" max="21" width="12.25" customWidth="1"/>
+    <col min="22" max="22" width="24.75" customWidth="1"/>
+    <col min="23" max="23" width="11.5" customWidth="1"/>
+    <col min="24" max="1034" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1"/>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-      <c r="M1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-    </row>
-    <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A3" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q3" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="R3" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="T3" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="U3" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="W3" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="11" t="s">
+    </row>
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="B4" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="C4" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="V4" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="W4" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13" t="s">
+    </row>
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="N6" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="O6" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="P6" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="13"/>
-    </row>
-    <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-    </row>
-    <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-    </row>
-    <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-    </row>
-    <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-    </row>
-    <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-    </row>
-    <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-    </row>
-    <row r="15" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
+      <c r="S6" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="T6" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="O7" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="P7" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
   <pageSetup paperSize="9" fitToWidth="0" cellComments="asDisplayed"/>
   <extLst>
@@ -3621,33 +4161,33 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -3679,7 +4219,7 @@
       <c r="E6" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
   <pageSetup paperSize="9" fitToWidth="0" cellComments="asDisplayed"/>
   <extLst>
@@ -3698,17 +4238,17 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.875" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.375" customWidth="1"/>
-    <col min="6" max="6" width="54.875" customWidth="1"/>
+    <col min="6" max="6" width="53" customWidth="1"/>
     <col min="7" max="9" width="13.375" customWidth="1"/>
     <col min="10" max="1025" width="7.375" customWidth="1"/>
   </cols>
@@ -3739,402 +4279,402 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="32" t="s">
-        <v>100</v>
+      <c r="F5" s="25" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>149</v>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>123</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34" t="s">
-        <v>149</v>
+        <v>52</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>150</v>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>124</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34" t="s">
-        <v>150</v>
+        <v>52</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="32" t="s">
-        <v>116</v>
+      <c r="F8" s="25" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>148</v>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>122</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="35" t="s">
-        <v>148</v>
+        <v>52</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="28" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>119</v>
+        <v>80</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>151</v>
+      <c r="C12" s="26" t="s">
+        <v>125</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34" t="s">
-        <v>151</v>
+        <v>52</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>124</v>
+        <v>80</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>100</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>126</v>
+        <v>52</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>146</v>
+        <v>101</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>128</v>
+        <v>101</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>130</v>
+        <v>101</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>133</v>
+        <v>101</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="32" t="s">
-        <v>139</v>
+      <c r="F18" s="25" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>155</v>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33" t="s">
-        <v>155</v>
+        <v>52</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>156</v>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>175</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33" t="s">
-        <v>156</v>
+        <v>52</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>157</v>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>176</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>140</v>
+        <v>80</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="32" t="s">
-        <v>134</v>
+      <c r="F23" s="25" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>160</v>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>126</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33" t="s">
-        <v>160</v>
+        <v>52</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>161</v>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>127</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33" t="s">
-        <v>161</v>
+        <v>52</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="27" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.69930599999999998" right="0.69930599999999998" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0" cellComments="asDisplayed"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" cellComments="asDisplayed" r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1548710272" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
@@ -4151,14 +4691,13 @@
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="2" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="20.625" customWidth="1"/>
     <col min="5" max="1007" width="8.75" customWidth="1"/>
     <col min="1008" max="1025" width="9" customWidth="1"/>
@@ -4166,30 +4705,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4197,13 +4736,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>111</v>
+        <v>88</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4211,11 +4750,9 @@
         <f t="shared" ref="A4:A35" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
@@ -4223,10 +4760,8 @@
         <v>3</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>113</v>
-      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
@@ -4234,7 +4769,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4243,7 +4778,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4252,7 +4787,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4261,7 +4796,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4270,7 +4805,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4279,7 +4814,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4288,7 +4823,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4297,7 +4832,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4306,7 +4841,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4315,7 +4850,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4324,7 +4859,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4333,7 +4868,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4342,7 +4877,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4351,7 +4886,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4360,7 +4895,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4369,7 +4904,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4378,7 +4913,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -4387,7 +4922,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -4396,7 +4931,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -4405,7 +4940,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
@@ -4414,7 +4949,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -4423,7 +4958,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -4432,7 +4967,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
@@ -4441,7 +4976,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -4450,7 +4985,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
@@ -4459,7 +4994,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
@@ -4468,7 +5003,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -4477,7 +5012,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
@@ -4486,7 +5021,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -4495,7 +5030,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
@@ -4504,7 +5039,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
@@ -4513,7 +5048,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
+      <c r="C37" s="36"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
@@ -4522,7 +5057,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
+      <c r="C38" s="36"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
@@ -4531,7 +5066,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
+      <c r="C39" s="36"/>
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
@@ -4540,7 +5075,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+      <c r="C40" s="36"/>
       <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
@@ -4549,7 +5084,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+      <c r="C41" s="36"/>
       <c r="D41" s="8"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
@@ -4558,7 +5093,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+      <c r="C42" s="36"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
@@ -4567,7 +5102,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
+      <c r="C43" s="36"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
@@ -4576,7 +5111,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
+      <c r="C44" s="36"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
@@ -4585,7 +5120,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
+      <c r="C45" s="36"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
@@ -4594,7 +5129,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
+      <c r="C46" s="36"/>
       <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
@@ -4603,7 +5138,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
+      <c r="C47" s="36"/>
       <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
@@ -4612,7 +5147,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
+      <c r="C48" s="36"/>
       <c r="D48" s="8"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
@@ -4621,7 +5156,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
+      <c r="C49" s="36"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
@@ -4630,7 +5165,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
+      <c r="C50" s="36"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
@@ -4639,7 +5174,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
+      <c r="C51" s="36"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
@@ -4648,7 +5183,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
+      <c r="C52" s="36"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
@@ -4657,7 +5192,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
+      <c r="C53" s="36"/>
       <c r="D53" s="8"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
@@ -4666,7 +5201,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
+      <c r="C54" s="36"/>
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
@@ -4675,7 +5210,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
+      <c r="C55" s="36"/>
       <c r="D55" s="8"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
@@ -4684,7 +5219,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
+      <c r="C56" s="36"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
@@ -4693,7 +5228,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
+      <c r="C57" s="36"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
@@ -4702,7 +5237,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
+      <c r="C58" s="36"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
@@ -4711,7 +5246,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
+      <c r="C59" s="36"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
@@ -4720,7 +5255,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
+      <c r="C60" s="36"/>
       <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
@@ -4729,7 +5264,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
+      <c r="C61" s="36"/>
       <c r="D61" s="8"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
@@ -4738,7 +5273,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
+      <c r="C62" s="36"/>
       <c r="D62" s="8"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
@@ -4747,7 +5282,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
+      <c r="C63" s="36"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
@@ -4756,7 +5291,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
+      <c r="C64" s="36"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
@@ -4765,7 +5300,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
+      <c r="C65" s="36"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
@@ -4774,7 +5309,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
+      <c r="C66" s="36"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
@@ -4783,7 +5318,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
+      <c r="C67" s="36"/>
       <c r="D67" s="8"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
@@ -4792,7 +5327,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
+      <c r="C68" s="36"/>
       <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
@@ -4801,7 +5336,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
+      <c r="C69" s="36"/>
       <c r="D69" s="8"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
@@ -4810,7 +5345,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
+      <c r="C70" s="36"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
@@ -4819,7 +5354,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
+      <c r="C71" s="36"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
@@ -4828,7 +5363,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
+      <c r="C72" s="36"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
@@ -4837,7 +5372,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
+      <c r="C73" s="36"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
@@ -4846,7 +5381,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
+      <c r="C74" s="36"/>
       <c r="D74" s="8"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
@@ -4855,7 +5390,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
+      <c r="C75" s="36"/>
       <c r="D75" s="8"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
@@ -4864,7 +5399,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
+      <c r="C76" s="36"/>
       <c r="D76" s="8"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
@@ -4873,7 +5408,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
+      <c r="C77" s="36"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
@@ -4882,7 +5417,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
+      <c r="C78" s="36"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
@@ -4891,7 +5426,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
+      <c r="C79" s="36"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
@@ -4900,7 +5435,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
+      <c r="C80" s="36"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
@@ -4909,7 +5444,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
+      <c r="C81" s="36"/>
       <c r="D81" s="8"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
@@ -4918,7 +5453,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
+      <c r="C82" s="36"/>
       <c r="D82" s="8"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
@@ -4927,7 +5462,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
+      <c r="C83" s="36"/>
       <c r="D83" s="8"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
@@ -4936,7 +5471,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
+      <c r="C84" s="36"/>
       <c r="D84" s="8"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
@@ -4945,7 +5480,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
+      <c r="C85" s="36"/>
       <c r="D85" s="8"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
@@ -4954,7 +5489,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
+      <c r="C86" s="36"/>
       <c r="D86" s="8"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
@@ -4963,7 +5498,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
+      <c r="C87" s="36"/>
       <c r="D87" s="8"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
@@ -4972,7 +5507,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
+      <c r="C88" s="36"/>
       <c r="D88" s="8"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
@@ -4981,7 +5516,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
+      <c r="C89" s="36"/>
       <c r="D89" s="8"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
@@ -4990,7 +5525,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
+      <c r="C90" s="36"/>
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
@@ -4999,7 +5534,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
+      <c r="C91" s="36"/>
       <c r="D91" s="8"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
@@ -5008,7 +5543,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
+      <c r="C92" s="36"/>
       <c r="D92" s="8"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
@@ -5017,7 +5552,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
+      <c r="C93" s="36"/>
       <c r="D93" s="8"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
@@ -5026,7 +5561,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
+      <c r="C94" s="36"/>
       <c r="D94" s="8"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
@@ -5035,7 +5570,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
+      <c r="C95" s="36"/>
       <c r="D95" s="8"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
@@ -5044,7 +5579,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
+      <c r="C96" s="36"/>
       <c r="D96" s="8"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
@@ -5053,7 +5588,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
+      <c r="C97" s="36"/>
       <c r="D97" s="8"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
@@ -5062,7 +5597,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
+      <c r="C98" s="36"/>
       <c r="D98" s="8"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
@@ -5071,7 +5606,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
+      <c r="C99" s="36"/>
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
@@ -5080,7 +5615,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
+      <c r="C100" s="36"/>
       <c r="D100" s="8"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
@@ -5089,7 +5624,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
+      <c r="C101" s="36"/>
       <c r="D101" s="8"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
@@ -5098,11 +5633,11 @@
         <v>100</v>
       </c>
       <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
+      <c r="C102" s="36"/>
       <c r="D102" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" fitToWidth="0" cellComments="asDisplayed"/>
   <headerFooter>

--- a/template/Cisco_UCS/UCSチェックシート.xlsx
+++ b/template/Cisco_UCS/UCSチェックシート.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="203">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>2. 検査シート編集</t>
-  </si>
-  <si>
-    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
   </si>
   <si>
     <t>検査ドメイン</t>
@@ -525,10 +522,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>ucs1</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>OS名</t>
   </si>
   <si>
@@ -711,9 +704,6 @@
   <si>
     <t>CiscoUCS</t>
     <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>192.168.10.50</t>
   </si>
   <si>
     <t>snmp_trap:k</t>
@@ -784,11 +774,34 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>getconfig -r {Redmineプロジェクト名}</t>
-    <rPh sb="27" eb="28">
+    <t>getconfig -rp {Redmineプロジェクト名}</t>
+    <rPh sb="28" eb="29">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。(*)が必須入力項目となります。</t>
+    <rPh sb="40" eb="42">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(*)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ucs1</t>
+  </si>
+  <si>
+    <t>102.168.10.50</t>
   </si>
 </sst>
 </file>
@@ -1368,12 +1381,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1384,6 +1391,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1781,7 +1794,7 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="21"/>
       <c r="B4" s="21" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -1800,7 +1813,7 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="21"/>
       <c r="B5" s="21" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
@@ -1944,7 +1957,7 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="21"/>
       <c r="B13" s="21" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -1963,7 +1976,7 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="21"/>
       <c r="B14" s="21" t="s">
-        <v>4</v>
+        <v>199</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -1998,12 +2011,14 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
+      <c r="B16" s="21" t="s">
+        <v>200</v>
+      </c>
       <c r="C16" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>5</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>6</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
@@ -2019,12 +2034,14 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
+      <c r="B17" s="21" t="s">
+        <v>200</v>
+      </c>
       <c r="C17" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>7</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>8</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -2040,12 +2057,14 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
+      <c r="B18" s="21" t="s">
+        <v>200</v>
+      </c>
       <c r="C18" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>9</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>10</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
@@ -2061,12 +2080,14 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
+      <c r="B19" s="21" t="s">
+        <v>200</v>
+      </c>
       <c r="C19" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>11</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>12</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
@@ -2084,10 +2105,10 @@
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>13</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>14</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
@@ -2105,10 +2126,10 @@
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>15</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>16</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
@@ -2126,10 +2147,10 @@
       <c r="A22" s="21"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="21" t="s">
         <v>17</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>18</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
@@ -2163,7 +2184,7 @@
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="21"/>
       <c r="B24" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -2199,15 +2220,15 @@
     <row r="26" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="21"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
+      <c r="C26" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
@@ -2219,25 +2240,25 @@
       <c r="A27" s="21"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="F27" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="G27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="H27" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="I27" s="24" t="s">
         <v>25</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>26</v>
       </c>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
@@ -2249,28 +2270,28 @@
     <row r="28" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="21"/>
       <c r="B28" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="D28" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="E28" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="F28" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="G28" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="H28" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="I28" s="24" t="s">
         <v>33</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>34</v>
       </c>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
@@ -2285,16 +2306,16 @@
         <v>1</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
@@ -2496,7 +2517,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -2533,7 +2554,7 @@
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="21"/>
       <c r="B42" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
@@ -2570,7 +2591,7 @@
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="17" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
@@ -2605,7 +2626,7 @@
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="21"/>
       <c r="B46" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
@@ -2642,7 +2663,7 @@
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
@@ -2678,7 +2699,7 @@
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D50" s="21"/>
       <c r="E50" s="21"/>
@@ -2697,7 +2718,7 @@
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D51" s="21"/>
       <c r="E51" s="21"/>
@@ -2716,7 +2737,7 @@
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
@@ -2750,7 +2771,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -2787,7 +2808,7 @@
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="21"/>
       <c r="B56" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="21"/>
@@ -2824,7 +2845,7 @@
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="17" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
@@ -2858,7 +2879,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -2895,7 +2916,7 @@
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="21"/>
       <c r="B62" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C62" s="21"/>
       <c r="D62" s="21"/>
@@ -2932,7 +2953,7 @@
       <c r="A64" s="21"/>
       <c r="B64" s="21"/>
       <c r="C64" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D64" s="18"/>
       <c r="E64" s="18"/>
@@ -2967,7 +2988,7 @@
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="21"/>
       <c r="B66" s="21" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C66" s="21"/>
       <c r="D66" s="21"/>
@@ -2986,7 +3007,7 @@
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="21"/>
       <c r="B67" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C67" s="21"/>
       <c r="D67" s="21"/>
@@ -3023,7 +3044,7 @@
       <c r="A69" s="21"/>
       <c r="B69" s="21"/>
       <c r="C69" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D69" s="18"/>
       <c r="E69" s="18"/>
@@ -3058,7 +3079,7 @@
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" s="21"/>
       <c r="B71" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C71" s="21"/>
       <c r="D71" s="21"/>
@@ -3095,7 +3116,7 @@
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D73" s="21"/>
       <c r="E73" s="21"/>
@@ -3114,7 +3135,7 @@
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D74" s="18"/>
       <c r="E74" s="18"/>
@@ -3132,25 +3153,25 @@
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
-      <c r="K75" s="42"/>
-      <c r="L75" s="42"/>
-      <c r="M75" s="42"/>
-      <c r="N75" s="43"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="40"/>
+      <c r="L75" s="40"/>
+      <c r="M75" s="40"/>
+      <c r="N75" s="41"/>
       <c r="O75" s="21"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="21"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D76" s="21"/>
       <c r="E76" s="21"/>
@@ -3169,7 +3190,7 @@
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="17" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D77" s="18"/>
       <c r="E77" s="18"/>
@@ -3187,31 +3208,31 @@
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
-      <c r="C78" s="41"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="42"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="42"/>
-      <c r="K78" s="42"/>
-      <c r="L78" s="42"/>
-      <c r="M78" s="42"/>
-      <c r="N78" s="43"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="40"/>
+      <c r="K78" s="40"/>
+      <c r="L78" s="40"/>
+      <c r="M78" s="40"/>
+      <c r="N78" s="41"/>
       <c r="O78" s="21"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80" t="s">
         <v>50</v>
-      </c>
-      <c r="C80" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3240,9 +3261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3257,64 +3276,64 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
-      <c r="B1" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
@@ -3322,20 +3341,18 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>184</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
@@ -3603,7 +3620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:W16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3625,87 +3644,87 @@
   <sheetData>
     <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="C3" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="D3" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="E3" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="I3" s="37" t="s">
+      <c r="L3" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="M3" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="K3" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="37" t="s">
+      <c r="Q3" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="M3" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" s="37" t="s">
+      <c r="R3" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="S3" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="T3" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="U3" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="P3" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q3" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="R3" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="T3" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="U3" s="37" t="s">
+      <c r="V3" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="V3" s="37" t="s">
+      <c r="W3" s="37" t="s">
         <v>62</v>
-      </c>
-      <c r="W3" s="37" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>65</v>
-      </c>
       <c r="C4" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
@@ -3724,31 +3743,31 @@
       <c r="S4" s="30"/>
       <c r="T4" s="30"/>
       <c r="U4" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="V4" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="V4" s="30" t="s">
+      <c r="W4" s="31" t="s">
         <v>67</v>
-      </c>
-      <c r="W4" s="31" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
       <c r="E5" s="32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
@@ -3765,122 +3784,122 @@
       <c r="U5" s="30"/>
       <c r="V5" s="30"/>
       <c r="W5" s="33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
       <c r="E6" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="H6" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="I6" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="J6" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="K6" s="30" t="s">
         <v>145</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>147</v>
       </c>
       <c r="L6" s="30"/>
       <c r="M6" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="N6" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="O6" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="P6" s="30" t="s">
         <v>149</v>
-      </c>
-      <c r="O6" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="P6" s="30" t="s">
-        <v>151</v>
       </c>
       <c r="Q6" s="30"/>
       <c r="R6" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="T6" s="30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U6" s="30"/>
       <c r="V6" s="30"/>
       <c r="W6" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
       <c r="E7" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="I7" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="J7" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="G7" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="I7" s="30" t="s">
+      <c r="K7" s="30" t="s">
         <v>145</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="K7" s="30" t="s">
-        <v>147</v>
       </c>
       <c r="L7" s="30"/>
       <c r="M7" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="O7" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="N7" s="30" t="s">
+      <c r="P7" s="30" t="s">
         <v>160</v>
-      </c>
-      <c r="O7" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="P7" s="30" t="s">
-        <v>162</v>
       </c>
       <c r="Q7" s="30"/>
       <c r="R7" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S7" s="30"/>
       <c r="T7" s="30"/>
       <c r="U7" s="30"/>
       <c r="V7" s="30"/>
       <c r="W7" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -3893,14 +3912,14 @@
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
       <c r="L8" s="30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M8" s="30"/>
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
       <c r="P8" s="30"/>
       <c r="Q8" s="30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="R8" s="30"/>
       <c r="S8" s="30"/>
@@ -3908,12 +3927,12 @@
       <c r="U8" s="30"/>
       <c r="V8" s="30"/>
       <c r="W8" s="31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
@@ -3926,14 +3945,14 @@
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
       <c r="L9" s="30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
       <c r="P9" s="30"/>
       <c r="Q9" s="30" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="R9" s="30"/>
       <c r="S9" s="30"/>
@@ -3941,12 +3960,12 @@
       <c r="U9" s="30"/>
       <c r="V9" s="30"/>
       <c r="W9" s="31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -3959,14 +3978,14 @@
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
       <c r="L10" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
       <c r="O10" s="34"/>
       <c r="P10" s="34"/>
       <c r="Q10" s="34" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
@@ -3974,7 +3993,7 @@
       <c r="U10" s="34"/>
       <c r="V10" s="34"/>
       <c r="W10" s="31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
@@ -4161,33 +4180,33 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -4238,7 +4257,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4279,396 +4298,396 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="26"/>
       <c r="B6" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="26"/>
       <c r="B7" s="26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="26"/>
       <c r="B9" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>94</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="26"/>
       <c r="B12" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="D13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="26" t="s">
+      <c r="F13" s="25" t="s">
         <v>101</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="25" t="s">
         <v>119</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="25" t="s">
         <v>103</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="25" t="s">
         <v>105</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="25" t="s">
         <v>108</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="26"/>
       <c r="B19" s="26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="26"/>
       <c r="B20" s="26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="26"/>
       <c r="B21" s="26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="D23" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="26"/>
       <c r="B24" s="26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="26"/>
       <c r="B25" s="26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4705,30 +4724,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4736,13 +4755,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4751,7 +4770,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="40"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">

--- a/template/Cisco_UCS/UCSチェックシート.xlsx
+++ b/template/Cisco_UCS/UCSチェックシート.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="219">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -801,7 +801,94 @@
     <t>ucs1</t>
   </si>
   <si>
-    <t>102.168.10.50</t>
+    <t>10.216.6.144</t>
+  </si>
+  <si>
+    <t>├─S/N</t>
+  </si>
+  <si>
+    <t>├─機種</t>
+  </si>
+  <si>
+    <t>└─型番</t>
+  </si>
+  <si>
+    <t>chassis</t>
+  </si>
+  <si>
+    <t>シャーシ情報</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>show chassis detail' コマンドでシャーシ情報検索</t>
+    <rPh sb="30" eb="32">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>シャーシ情報：S/N</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>シャーシ情報：機種</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キシュ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>シャーシ情報：型番</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カタバン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>chassis.sn</t>
+  </si>
+  <si>
+    <t>chassis.productname</t>
+  </si>
+  <si>
+    <t>chassis.productid</t>
+  </si>
+  <si>
+    <t>機種</t>
+    <rPh sb="0" eb="2">
+      <t>キシュ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>型番</t>
+    <rPh sb="0" eb="2">
+      <t>カタバン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>S/N</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -984,20 +1071,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1266,7 +1353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1357,21 +1444,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1397,6 +1469,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2220,15 +2313,15 @@
     <row r="26" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="21"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
@@ -3153,18 +3246,18 @@
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="40"/>
-      <c r="G75" s="40"/>
-      <c r="H75" s="40"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="40"/>
-      <c r="K75" s="40"/>
-      <c r="L75" s="40"/>
-      <c r="M75" s="40"/>
-      <c r="N75" s="41"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="35"/>
+      <c r="N75" s="36"/>
       <c r="O75" s="21"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
@@ -3208,18 +3301,18 @@
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="40"/>
-      <c r="G78" s="40"/>
-      <c r="H78" s="40"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="40"/>
-      <c r="K78" s="40"/>
-      <c r="L78" s="40"/>
-      <c r="M78" s="40"/>
-      <c r="N78" s="41"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="35"/>
+      <c r="K78" s="35"/>
+      <c r="L78" s="35"/>
+      <c r="M78" s="35"/>
+      <c r="N78" s="36"/>
       <c r="O78" s="21"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.15">
@@ -3261,7 +3354,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3276,15 +3371,15 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
@@ -3618,533 +3713,593 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:W16"/>
+  <dimension ref="A3:Z16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
-    <col min="2" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="10" width="12.75" customWidth="1"/>
-    <col min="11" max="15" width="21.25" customWidth="1"/>
-    <col min="16" max="16" width="29.125" customWidth="1"/>
-    <col min="17" max="18" width="20.875" customWidth="1"/>
-    <col min="19" max="19" width="13.75" customWidth="1"/>
-    <col min="20" max="20" width="29.125" customWidth="1"/>
-    <col min="21" max="21" width="12.25" customWidth="1"/>
-    <col min="22" max="22" width="24.75" customWidth="1"/>
-    <col min="23" max="23" width="11.5" customWidth="1"/>
-    <col min="24" max="1034" width="8.75" customWidth="1"/>
+    <col min="2" max="7" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="13.125" customWidth="1"/>
+    <col min="10" max="13" width="12.75" customWidth="1"/>
+    <col min="14" max="18" width="21.25" customWidth="1"/>
+    <col min="19" max="19" width="29.125" customWidth="1"/>
+    <col min="20" max="21" width="20.875" customWidth="1"/>
+    <col min="22" max="22" width="13.75" customWidth="1"/>
+    <col min="23" max="23" width="29.125" customWidth="1"/>
+    <col min="24" max="24" width="12.25" customWidth="1"/>
+    <col min="25" max="25" width="24.75" customWidth="1"/>
+    <col min="26" max="26" width="11.5" customWidth="1"/>
+    <col min="27" max="1037" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A3" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="H3" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="I3" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="J3" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="K3" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="L3" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="M3" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="N3" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="O3" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="P3" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="37" t="s">
+      <c r="Q3" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="37" t="s">
+      <c r="R3" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="37" t="s">
+      <c r="S3" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="Q3" s="37" t="s">
+      <c r="T3" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="R3" s="37" t="s">
+      <c r="U3" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="S3" s="37" t="s">
+      <c r="V3" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="T3" s="37" t="s">
+      <c r="W3" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="U3" s="37" t="s">
+      <c r="X3" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="37" t="s">
+      <c r="Y3" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="W3" s="37" t="s">
+      <c r="Z3" s="32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30" t="s">
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="V4" s="30" t="s">
+      <c r="Y4" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="W4" s="31" t="s">
+      <c r="Z4" s="42" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="32" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="H5" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32" t="s">
+      <c r="I5" s="43"/>
+      <c r="J5" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="K5" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="33" t="s">
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="44" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="I6" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="J6" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="K6" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="L6" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="M6" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="N6" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30" t="s">
+      <c r="O6" s="41"/>
+      <c r="P6" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="Q6" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="O6" s="30" t="s">
+      <c r="R6" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="P6" s="30" t="s">
+      <c r="S6" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30" t="s">
+      <c r="T6" s="41"/>
+      <c r="U6" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="S6" s="30" t="s">
+      <c r="V6" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="T6" s="30" t="s">
+      <c r="W6" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="31" t="s">
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="42" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="I7" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="J7" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="K7" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="L7" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="M7" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="K7" s="30" t="s">
+      <c r="N7" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30" t="s">
+      <c r="O7" s="41"/>
+      <c r="P7" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="N7" s="30" t="s">
+      <c r="Q7" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="O7" s="30" t="s">
+      <c r="R7" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="P7" s="30" t="s">
+      <c r="S7" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30" t="s">
+      <c r="T7" s="41"/>
+      <c r="U7" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="31" t="s">
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="42" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30" t="s">
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="31" t="s">
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="42" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30" t="s">
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="31" t="s">
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="42" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="34" t="s">
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34" t="s">
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="31" t="s">
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="42" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6"/>
@@ -4254,10 +4409,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4366,112 +4521,104 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>90</v>
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>207</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="25" t="s">
-        <v>91</v>
+      <c r="E8" s="26"/>
+      <c r="F8" s="28" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="26"/>
       <c r="B9" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>121</v>
+        <v>213</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>203</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="26"/>
-      <c r="F9" s="28" t="s">
-        <v>121</v>
+      <c r="F9" s="27" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>93</v>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>204</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>94</v>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>96</v>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>205</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>124</v>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27" t="s">
-        <v>124</v>
+      <c r="E12" s="5"/>
+      <c r="F12" s="25" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="A13" s="26"/>
       <c r="B13" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>99</v>
+        <v>116</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>121</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>101</v>
+      <c r="E13" s="26"/>
+      <c r="F13" s="28" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4479,19 +4626,19 @@
         <v>79</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4499,59 +4646,53 @@
         <v>79</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>100</v>
-      </c>
+      <c r="E15" s="5"/>
       <c r="F15" s="25" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>104</v>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>124</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>105</v>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>107</v>
+      <c r="B17" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>99</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="26" t="s">
         <v>100</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4559,134 +4700,214 @@
         <v>79</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="F18" s="25" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>172</v>
+      <c r="A19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="27" t="s">
-        <v>172</v>
+      <c r="E19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>173</v>
+      <c r="A20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="27" t="s">
-        <v>173</v>
+      <c r="E20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>174</v>
+      <c r="A21" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="E21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="E22" s="5"/>
       <c r="F22" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>85</v>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>172</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="25" t="s">
-        <v>109</v>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="26"/>
       <c r="B24" s="26" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="27" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="26"/>
       <c r="B25" s="26" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="27" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4757,7 +4978,7 @@
       <c r="B3" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="33" t="s">
         <v>185</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -4770,7 +4991,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="38"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4941,7 +5162,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="36"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -4950,7 +5171,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="36"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -4959,7 +5180,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="36"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
@@ -4968,7 +5189,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="36"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -4977,7 +5198,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="36"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -4986,7 +5207,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="8"/>
-      <c r="C28" s="36"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
@@ -4995,7 +5216,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="8"/>
-      <c r="C29" s="36"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -5004,7 +5225,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="8"/>
-      <c r="C30" s="36"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
@@ -5013,7 +5234,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="8"/>
-      <c r="C31" s="36"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
@@ -5022,7 +5243,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="8"/>
-      <c r="C32" s="36"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -5031,7 +5252,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="8"/>
-      <c r="C33" s="36"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
@@ -5040,7 +5261,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="8"/>
-      <c r="C34" s="36"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -5049,7 +5270,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="8"/>
-      <c r="C35" s="36"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
@@ -5058,7 +5279,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="8"/>
-      <c r="C36" s="36"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
@@ -5067,7 +5288,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="8"/>
-      <c r="C37" s="36"/>
+      <c r="C37" s="31"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
@@ -5076,7 +5297,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="8"/>
-      <c r="C38" s="36"/>
+      <c r="C38" s="31"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
@@ -5085,7 +5306,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="8"/>
-      <c r="C39" s="36"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
@@ -5094,7 +5315,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="8"/>
-      <c r="C40" s="36"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
@@ -5103,7 +5324,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="8"/>
-      <c r="C41" s="36"/>
+      <c r="C41" s="31"/>
       <c r="D41" s="8"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
@@ -5112,7 +5333,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="8"/>
-      <c r="C42" s="36"/>
+      <c r="C42" s="31"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
@@ -5121,7 +5342,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="8"/>
-      <c r="C43" s="36"/>
+      <c r="C43" s="31"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
@@ -5130,7 +5351,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="8"/>
-      <c r="C44" s="36"/>
+      <c r="C44" s="31"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
@@ -5139,7 +5360,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="8"/>
-      <c r="C45" s="36"/>
+      <c r="C45" s="31"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
@@ -5148,7 +5369,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="8"/>
-      <c r="C46" s="36"/>
+      <c r="C46" s="31"/>
       <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
@@ -5157,7 +5378,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="8"/>
-      <c r="C47" s="36"/>
+      <c r="C47" s="31"/>
       <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
@@ -5166,7 +5387,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="8"/>
-      <c r="C48" s="36"/>
+      <c r="C48" s="31"/>
       <c r="D48" s="8"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
@@ -5175,7 +5396,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="8"/>
-      <c r="C49" s="36"/>
+      <c r="C49" s="31"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
@@ -5184,7 +5405,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="8"/>
-      <c r="C50" s="36"/>
+      <c r="C50" s="31"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
@@ -5193,7 +5414,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="8"/>
-      <c r="C51" s="36"/>
+      <c r="C51" s="31"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
@@ -5202,7 +5423,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="8"/>
-      <c r="C52" s="36"/>
+      <c r="C52" s="31"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
@@ -5211,7 +5432,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="8"/>
-      <c r="C53" s="36"/>
+      <c r="C53" s="31"/>
       <c r="D53" s="8"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
@@ -5220,7 +5441,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="8"/>
-      <c r="C54" s="36"/>
+      <c r="C54" s="31"/>
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
@@ -5229,7 +5450,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="8"/>
-      <c r="C55" s="36"/>
+      <c r="C55" s="31"/>
       <c r="D55" s="8"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
@@ -5238,7 +5459,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="8"/>
-      <c r="C56" s="36"/>
+      <c r="C56" s="31"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
@@ -5247,7 +5468,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="8"/>
-      <c r="C57" s="36"/>
+      <c r="C57" s="31"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
@@ -5256,7 +5477,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="8"/>
-      <c r="C58" s="36"/>
+      <c r="C58" s="31"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
@@ -5265,7 +5486,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="8"/>
-      <c r="C59" s="36"/>
+      <c r="C59" s="31"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
@@ -5274,7 +5495,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="8"/>
-      <c r="C60" s="36"/>
+      <c r="C60" s="31"/>
       <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
@@ -5283,7 +5504,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="8"/>
-      <c r="C61" s="36"/>
+      <c r="C61" s="31"/>
       <c r="D61" s="8"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
@@ -5292,7 +5513,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="8"/>
-      <c r="C62" s="36"/>
+      <c r="C62" s="31"/>
       <c r="D62" s="8"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
@@ -5301,7 +5522,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="8"/>
-      <c r="C63" s="36"/>
+      <c r="C63" s="31"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
@@ -5310,7 +5531,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="8"/>
-      <c r="C64" s="36"/>
+      <c r="C64" s="31"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
@@ -5319,7 +5540,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="8"/>
-      <c r="C65" s="36"/>
+      <c r="C65" s="31"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
@@ -5328,7 +5549,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="8"/>
-      <c r="C66" s="36"/>
+      <c r="C66" s="31"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
@@ -5337,7 +5558,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="8"/>
-      <c r="C67" s="36"/>
+      <c r="C67" s="31"/>
       <c r="D67" s="8"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
@@ -5346,7 +5567,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="8"/>
-      <c r="C68" s="36"/>
+      <c r="C68" s="31"/>
       <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
@@ -5355,7 +5576,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="8"/>
-      <c r="C69" s="36"/>
+      <c r="C69" s="31"/>
       <c r="D69" s="8"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
@@ -5364,7 +5585,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="8"/>
-      <c r="C70" s="36"/>
+      <c r="C70" s="31"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
@@ -5373,7 +5594,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="8"/>
-      <c r="C71" s="36"/>
+      <c r="C71" s="31"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
@@ -5382,7 +5603,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="8"/>
-      <c r="C72" s="36"/>
+      <c r="C72" s="31"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
@@ -5391,7 +5612,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="8"/>
-      <c r="C73" s="36"/>
+      <c r="C73" s="31"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
@@ -5400,7 +5621,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="8"/>
-      <c r="C74" s="36"/>
+      <c r="C74" s="31"/>
       <c r="D74" s="8"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
@@ -5409,7 +5630,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="8"/>
-      <c r="C75" s="36"/>
+      <c r="C75" s="31"/>
       <c r="D75" s="8"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
@@ -5418,7 +5639,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="8"/>
-      <c r="C76" s="36"/>
+      <c r="C76" s="31"/>
       <c r="D76" s="8"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
@@ -5427,7 +5648,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="8"/>
-      <c r="C77" s="36"/>
+      <c r="C77" s="31"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
@@ -5436,7 +5657,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="8"/>
-      <c r="C78" s="36"/>
+      <c r="C78" s="31"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
@@ -5445,7 +5666,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="8"/>
-      <c r="C79" s="36"/>
+      <c r="C79" s="31"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
@@ -5454,7 +5675,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="8"/>
-      <c r="C80" s="36"/>
+      <c r="C80" s="31"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
@@ -5463,7 +5684,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="8"/>
-      <c r="C81" s="36"/>
+      <c r="C81" s="31"/>
       <c r="D81" s="8"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
@@ -5472,7 +5693,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="8"/>
-      <c r="C82" s="36"/>
+      <c r="C82" s="31"/>
       <c r="D82" s="8"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
@@ -5481,7 +5702,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="8"/>
-      <c r="C83" s="36"/>
+      <c r="C83" s="31"/>
       <c r="D83" s="8"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
@@ -5490,7 +5711,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="8"/>
-      <c r="C84" s="36"/>
+      <c r="C84" s="31"/>
       <c r="D84" s="8"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
@@ -5499,7 +5720,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="8"/>
-      <c r="C85" s="36"/>
+      <c r="C85" s="31"/>
       <c r="D85" s="8"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
@@ -5508,7 +5729,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="8"/>
-      <c r="C86" s="36"/>
+      <c r="C86" s="31"/>
       <c r="D86" s="8"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
@@ -5517,7 +5738,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="8"/>
-      <c r="C87" s="36"/>
+      <c r="C87" s="31"/>
       <c r="D87" s="8"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
@@ -5526,7 +5747,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="8"/>
-      <c r="C88" s="36"/>
+      <c r="C88" s="31"/>
       <c r="D88" s="8"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
@@ -5535,7 +5756,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="8"/>
-      <c r="C89" s="36"/>
+      <c r="C89" s="31"/>
       <c r="D89" s="8"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
@@ -5544,7 +5765,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="8"/>
-      <c r="C90" s="36"/>
+      <c r="C90" s="31"/>
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
@@ -5553,7 +5774,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="8"/>
-      <c r="C91" s="36"/>
+      <c r="C91" s="31"/>
       <c r="D91" s="8"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
@@ -5562,7 +5783,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="8"/>
-      <c r="C92" s="36"/>
+      <c r="C92" s="31"/>
       <c r="D92" s="8"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
@@ -5571,7 +5792,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="8"/>
-      <c r="C93" s="36"/>
+      <c r="C93" s="31"/>
       <c r="D93" s="8"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
@@ -5580,7 +5801,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="8"/>
-      <c r="C94" s="36"/>
+      <c r="C94" s="31"/>
       <c r="D94" s="8"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
@@ -5589,7 +5810,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="8"/>
-      <c r="C95" s="36"/>
+      <c r="C95" s="31"/>
       <c r="D95" s="8"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
@@ -5598,7 +5819,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="8"/>
-      <c r="C96" s="36"/>
+      <c r="C96" s="31"/>
       <c r="D96" s="8"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
@@ -5607,7 +5828,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="8"/>
-      <c r="C97" s="36"/>
+      <c r="C97" s="31"/>
       <c r="D97" s="8"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
@@ -5616,7 +5837,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="8"/>
-      <c r="C98" s="36"/>
+      <c r="C98" s="31"/>
       <c r="D98" s="8"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
@@ -5625,7 +5846,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="8"/>
-      <c r="C99" s="36"/>
+      <c r="C99" s="31"/>
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
@@ -5634,7 +5855,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="8"/>
-      <c r="C100" s="36"/>
+      <c r="C100" s="31"/>
       <c r="D100" s="8"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
@@ -5643,7 +5864,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="8"/>
-      <c r="C101" s="36"/>
+      <c r="C101" s="31"/>
       <c r="D101" s="8"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
@@ -5652,7 +5873,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="8"/>
-      <c r="C102" s="36"/>
+      <c r="C102" s="31"/>
       <c r="D102" s="8"/>
     </row>
   </sheetData>

--- a/template/Cisco_UCS/UCSチェックシート.xlsx
+++ b/template/Cisco_UCS/UCSチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="227">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -888,6 +888,38 @@
   </si>
   <si>
     <t>S/N</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ハードウェア</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>メモリ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ストレージ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ネットワーク</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>SNMP</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>NTP</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1465,12 +1497,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1490,6 +1516,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1819,7 +1851,9 @@
   </sheetPr>
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2313,15 +2347,15 @@
     <row r="26" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="21"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
@@ -3371,15 +3405,15 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
@@ -3750,13 +3784,13 @@
       <c r="D3" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="37" t="s">
         <v>218</v>
       </c>
       <c r="H3" s="32" t="s">
@@ -3818,348 +3852,348 @@
       </c>
     </row>
     <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41" t="s">
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="Y4" s="41" t="s">
+      <c r="Y4" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="Z4" s="42" t="s">
+      <c r="Z4" s="40" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="40" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43" t="s">
+      <c r="I5" s="41"/>
+      <c r="J5" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="44" t="s">
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="42" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="J6" s="41" t="s">
+      <c r="J6" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="K6" s="41" t="s">
+      <c r="K6" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="L6" s="41" t="s">
+      <c r="L6" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="M6" s="41" t="s">
+      <c r="M6" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="N6" s="41" t="s">
+      <c r="N6" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41" t="s">
+      <c r="O6" s="39"/>
+      <c r="P6" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="Q6" s="41" t="s">
+      <c r="Q6" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="R6" s="41" t="s">
+      <c r="R6" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="S6" s="41" t="s">
+      <c r="S6" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41" t="s">
+      <c r="T6" s="39"/>
+      <c r="U6" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="V6" s="41" t="s">
+      <c r="V6" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="W6" s="41" t="s">
+      <c r="W6" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="42" t="s">
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="40" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="K7" s="41" t="s">
+      <c r="K7" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="L7" s="41" t="s">
+      <c r="L7" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="M7" s="41" t="s">
+      <c r="M7" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="N7" s="41" t="s">
+      <c r="N7" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41" t="s">
+      <c r="O7" s="39"/>
+      <c r="P7" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="Q7" s="41" t="s">
+      <c r="Q7" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="R7" s="41" t="s">
+      <c r="R7" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="S7" s="41" t="s">
+      <c r="S7" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41" t="s">
+      <c r="T7" s="39"/>
+      <c r="U7" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="42" t="s">
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="40" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41" t="s">
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="42" t="s">
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="40" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41" t="s">
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="42" t="s">
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="40" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="40" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45" t="s">
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45" t="s">
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="42" t="s">
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="40" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
@@ -4409,505 +4443,584 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.875" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.375" customWidth="1"/>
-    <col min="6" max="6" width="53" customWidth="1"/>
-    <col min="7" max="9" width="13.375" customWidth="1"/>
-    <col min="10" max="1025" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="4" width="33.25" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="53" customWidth="1"/>
+    <col min="8" max="10" width="13.375" customWidth="1"/>
+    <col min="11" max="1026" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>74</v>
+      <c r="B4" s="26" t="s">
+        <v>219</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>80</v>
+      <c r="B5" s="26" t="s">
+        <v>220</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="26"/>
       <c r="B6" s="26" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="26"/>
+      <c r="G6" s="27" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="26"/>
       <c r="B7" s="26" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="26"/>
+      <c r="G7" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="26" t="s">
         <v>208</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="26"/>
+      <c r="G8" s="28" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="26"/>
       <c r="B9" s="26" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="26"/>
+      <c r="G9" s="27" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="26"/>
       <c r="B10" s="26" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="26"/>
+      <c r="G10" s="27" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="26"/>
       <c r="B11" s="26" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="26"/>
+      <c r="G11" s="27" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>89</v>
+      <c r="B12" s="26" t="s">
+        <v>220</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="25" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="26"/>
       <c r="B13" s="26" t="s">
-        <v>116</v>
+        <v>220</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="26"/>
+      <c r="G13" s="28" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>92</v>
+      <c r="B14" s="26" t="s">
+        <v>221</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="G14" s="25" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>95</v>
+      <c r="B15" s="26" t="s">
+        <v>222</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="26"/>
       <c r="B16" s="26" t="s">
-        <v>120</v>
+        <v>222</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="26"/>
+      <c r="G16" s="27" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>98</v>
+        <v>223</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="F17" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="G17" s="25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>117</v>
+      <c r="B18" s="26" t="s">
+        <v>223</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="G18" s="25" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>111</v>
+      <c r="B19" s="26" t="s">
+        <v>223</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="G19" s="25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>112</v>
+      <c r="B20" s="26" t="s">
+        <v>223</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="G20" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>106</v>
+      <c r="B21" s="26" t="s">
+        <v>224</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="G21" s="25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>83</v>
+      <c r="B22" s="26" t="s">
+        <v>225</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="5"/>
+      <c r="G22" s="25" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="26"/>
       <c r="B23" s="26" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="26"/>
+      <c r="G23" s="27" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="26"/>
       <c r="B24" s="26" t="s">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="27" t="s">
+      <c r="F24" s="26"/>
+      <c r="G24" s="27" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="26"/>
       <c r="B25" s="26" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="26"/>
+      <c r="G25" s="27" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>110</v>
+      <c r="B26" s="26" t="s">
+        <v>225</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="G26" s="25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>84</v>
+      <c r="B27" s="26" t="s">
+        <v>226</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="5"/>
+      <c r="G27" s="25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="26"/>
       <c r="B28" s="26" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="26"/>
+      <c r="G28" s="27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="26"/>
       <c r="B29" s="26" t="s">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="27" t="s">
+      <c r="F29" s="26"/>
+      <c r="G29" s="27" t="s">
         <v>126</v>
       </c>
     </row>

--- a/template/Cisco_UCS/UCSチェックシート.xlsx
+++ b/template/Cisco_UCS/UCSチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -1851,9 +1851,7 @@
   </sheetPr>
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4445,7 +4443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/template/Cisco_UCS/UCSチェックシート.xlsx
+++ b/template/Cisco_UCS/UCSチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="645"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="エラーレポート" sheetId="4" r:id="rId4"/>
     <sheet name="チェックシート(CiscoUCS)" sheetId="5" r:id="rId5"/>
     <sheet name="テンプレート(CiscoUCS)" sheetId="6" r:id="rId6"/>
+    <sheet name="テンプレート(CiscoUCS_sample)" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$N$74</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="239">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -280,9 +281,6 @@
     <t>bios</t>
   </si>
   <si>
-    <t>BIOS情報</t>
-  </si>
-  <si>
     <t>'show bios' コマンドで各モジュールのBIOS情報検索</t>
   </si>
   <si>
@@ -305,13 +303,6 @@
   </si>
   <si>
     <t>cimc</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>CIMC情報</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -383,16 +374,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>物理ストレージ情報</t>
-    <rPh sb="0" eb="2">
-      <t>ブツリ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>'show physical-drive detail' コマンドで物理ディスク情報検索</t>
     <rPh sb="34" eb="36">
       <t>ブツリ</t>
@@ -472,13 +453,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>ストレージアダプタ情報</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>'show storageadapter detail' コマンドでストレージアダプタ情報検索</t>
     <rPh sb="43" eb="45">
       <t>ジョウホウ</t>
@@ -656,9 +630,6 @@
   <si>
     <t>map</t>
     <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>SNMP情報</t>
   </si>
   <si>
     <t>SNMP情報：ポート</t>
@@ -798,29 +769,7 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>ucs1</t>
-  </si>
-  <si>
-    <t>10.216.6.144</t>
-  </si>
-  <si>
-    <t>├─S/N</t>
-  </si>
-  <si>
-    <t>├─機種</t>
-  </si>
-  <si>
-    <t>└─型番</t>
-  </si>
-  <si>
     <t>chassis</t>
-  </si>
-  <si>
-    <t>シャーシ情報</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Y</t>
@@ -895,31 +844,148 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
+    <t>CPU</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>メモリ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ストレージ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ネットワーク</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>SNMP</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>NTP</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>システム情報</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>機種</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>型番</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>S/N</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
     <t>ハードウェア</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>CPU</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>メモリ</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ストレージ</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ネットワーク</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>SNMP</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>NTP</t>
+    <t>筐体ステータス</t>
+    <rPh sb="0" eb="2">
+      <t>キョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>BIOSセキュアブート</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>BIOSブートモード</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>BIOSバージョン</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>タイムゾーン</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CIMCバージョン</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>cpu.socket</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>cpu.core</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>cpu.thread</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CPUソケット数</t>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CPUコア数</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CPUスレッド数</t>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ストレージアダプタ状態</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>HDD容量</t>
+    <rPh sb="3" eb="5">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>SNMPポート</t>
+  </si>
+  <si>
+    <t>SNMPコミュニティ名</t>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>SNMPアクセス</t>
+  </si>
+  <si>
+    <t>SNMP設定</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CiscoUCS</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -927,11 +993,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_-_¥* #,##0.00_-;\-_¥* #,##0.00_-;_-_¥* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-_¥* #,##0_-;\-_¥* #,##0_-;_-_¥* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;¥&quot;* #,##0.00_-;\-&quot;¥&quot;* #,##0.00_-;_-&quot;¥&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;¥&quot;* #,##0_-;\-&quot;¥&quot;* #,##0_-;_-&quot;¥&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1385,7 +1452,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1517,6 +1584,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1851,7 +1924,9 @@
   </sheetPr>
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1919,7 +1994,7 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="21"/>
       <c r="B4" s="21" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -1938,7 +2013,7 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="21"/>
       <c r="B5" s="21" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
@@ -2082,7 +2157,7 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="21"/>
       <c r="B13" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -2101,7 +2176,7 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="21"/>
       <c r="B14" s="21" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -2137,7 +2212,7 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="21"/>
       <c r="B16" s="21" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>4</v>
@@ -2160,7 +2235,7 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="21"/>
       <c r="B17" s="21" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>6</v>
@@ -2183,7 +2258,7 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="21"/>
       <c r="B18" s="21" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>8</v>
@@ -2206,7 +2281,7 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="21"/>
       <c r="B19" s="21" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>10</v>
@@ -2345,15 +2420,15 @@
     <row r="26" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="21"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
@@ -2431,13 +2506,13 @@
         <v>1</v>
       </c>
       <c r="C29" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>187</v>
-      </c>
       <c r="E29" s="24" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>34</v>
@@ -2716,7 +2791,7 @@
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="17" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
@@ -2788,7 +2863,7 @@
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="11" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
@@ -2824,7 +2899,7 @@
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D50" s="21"/>
       <c r="E50" s="21"/>
@@ -2970,7 +3045,7 @@
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="17" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
@@ -3113,7 +3188,7 @@
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="21"/>
       <c r="B66" s="21" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C66" s="21"/>
       <c r="D66" s="21"/>
@@ -3241,7 +3316,7 @@
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D73" s="21"/>
       <c r="E73" s="21"/>
@@ -3296,7 +3371,7 @@
       <c r="A76" s="21"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D76" s="21"/>
       <c r="E76" s="21"/>
@@ -3315,7 +3390,7 @@
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="17" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D77" s="18"/>
       <c r="E77" s="18"/>
@@ -3386,15 +3461,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="5" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="5" width="15.25" customWidth="1"/>
     <col min="6" max="6" width="19.25" customWidth="1"/>
     <col min="7" max="7" width="12.25" customWidth="1"/>
     <col min="8" max="8" width="15.25" customWidth="1"/>
@@ -3403,15 +3477,15 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
@@ -3467,19 +3541,21 @@
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="B4" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
@@ -3783,37 +3859,37 @@
         <v>55</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="H3" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="L3" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="M3" s="32" t="s">
         <v>128</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>132</v>
       </c>
       <c r="N3" s="32" t="s">
         <v>56</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P3" s="32" t="s">
         <v>57</v>
@@ -3825,19 +3901,19 @@
         <v>59</v>
       </c>
       <c r="S3" s="32" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="T3" s="32" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="U3" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V3" s="32" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="W3" s="32" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="X3" s="32" t="s">
         <v>60</v>
@@ -3899,23 +3975,23 @@
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
       <c r="E5" s="38" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I5" s="41"/>
       <c r="J5" s="41" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K5" s="41" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L5" s="41"/>
       <c r="M5" s="41"/>
@@ -3932,7 +4008,7 @@
       <c r="X5" s="39"/>
       <c r="Y5" s="39"/>
       <c r="Z5" s="42" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
@@ -3946,53 +4022,53 @@
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
       <c r="H6" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="L6" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="M6" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="N6" s="39" t="s">
         <v>141</v>
-      </c>
-      <c r="K6" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="N6" s="39" t="s">
-        <v>145</v>
       </c>
       <c r="O6" s="39"/>
       <c r="P6" s="39" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q6" s="39" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="R6" s="39" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="S6" s="39" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="T6" s="39"/>
       <c r="U6" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V6" s="39" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="W6" s="39" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="X6" s="39"/>
       <c r="Y6" s="39"/>
       <c r="Z6" s="40" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
@@ -4006,49 +4082,49 @@
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
       <c r="H7" s="39" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J7" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="N7" s="39" t="s">
         <v>141</v>
-      </c>
-      <c r="K7" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="L7" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="M7" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="N7" s="39" t="s">
-        <v>145</v>
       </c>
       <c r="O7" s="39"/>
       <c r="P7" s="39" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q7" s="39" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="R7" s="39" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="S7" s="39" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="T7" s="39"/>
       <c r="U7" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V7" s="39"/>
       <c r="W7" s="39"/>
       <c r="X7" s="39"/>
       <c r="Y7" s="39"/>
       <c r="Z7" s="40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
@@ -4069,14 +4145,14 @@
       <c r="M8" s="39"/>
       <c r="N8" s="39"/>
       <c r="O8" s="39" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="P8" s="39"/>
       <c r="Q8" s="39"/>
       <c r="R8" s="39"/>
       <c r="S8" s="39"/>
       <c r="T8" s="39" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="U8" s="39"/>
       <c r="V8" s="39"/>
@@ -4084,7 +4160,7 @@
       <c r="X8" s="39"/>
       <c r="Y8" s="39"/>
       <c r="Z8" s="40" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
@@ -4105,14 +4181,14 @@
       <c r="M9" s="39"/>
       <c r="N9" s="39"/>
       <c r="O9" s="39" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
       <c r="R9" s="39"/>
       <c r="S9" s="39"/>
       <c r="T9" s="39" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="U9" s="39"/>
       <c r="V9" s="39"/>
@@ -4120,24 +4196,24 @@
       <c r="X9" s="39"/>
       <c r="Y9" s="39"/>
       <c r="Z9" s="40" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="43" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
       <c r="D10" s="43"/>
       <c r="E10" s="38" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
@@ -4147,14 +4223,14 @@
       <c r="M10" s="43"/>
       <c r="N10" s="43"/>
       <c r="O10" s="43" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P10" s="43"/>
       <c r="Q10" s="43"/>
       <c r="R10" s="43"/>
       <c r="S10" s="43"/>
       <c r="T10" s="43" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="U10" s="43"/>
       <c r="V10" s="43"/>
@@ -4162,7 +4238,7 @@
       <c r="X10" s="43"/>
       <c r="Y10" s="43"/>
       <c r="Z10" s="40" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
@@ -4441,9 +4517,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="80" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4489,7 +4567,7 @@
         <v>34</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>76</v>
@@ -4508,140 +4586,140 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="A5" s="26"/>
       <c r="B5" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>80</v>
+        <v>215</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>203</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="25" t="s">
-        <v>82</v>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="26"/>
       <c r="B6" s="26" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>122</v>
+        <v>217</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="27" t="s">
-        <v>122</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="26"/>
       <c r="B7" s="26" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="27" t="s">
-        <v>123</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="26" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B8" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>207</v>
-      </c>
       <c r="D8" s="26" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="28" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="26"/>
       <c r="B9" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>203</v>
+        <v>219</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>221</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="27" t="s">
-        <v>210</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="26"/>
       <c r="B10" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>204</v>
+        <v>219</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>222</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="27" t="s">
-        <v>211</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="26"/>
+      <c r="A11" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="B11" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>215</v>
+        <v>219</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27" t="s">
-        <v>212</v>
+      <c r="F11" s="5"/>
+      <c r="G11" s="25" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
@@ -4649,148 +4727,132 @@
         <v>79</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="26"/>
       <c r="B13" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="28" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="A14" s="26"/>
       <c r="B14" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>92</v>
+        <v>209</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>226</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>94</v>
-      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="A15" s="26"/>
       <c r="B15" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>95</v>
+        <v>209</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>227</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="25" t="s">
-        <v>97</v>
-      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="26"/>
       <c r="B16" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>124</v>
+        <v>209</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>231</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>120</v>
+        <v>228</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F16" s="26"/>
-      <c r="G16" s="27" t="s">
-        <v>124</v>
-      </c>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>98</v>
+        <v>209</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="26" t="s">
-        <v>100</v>
+      <c r="F17" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="A18" s="26"/>
       <c r="B18" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>117</v>
+        <v>210</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>116</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>119</v>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4798,22 +4860,20 @@
         <v>79</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>100</v>
-      </c>
+      <c r="F19" s="5"/>
       <c r="G19" s="25" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4821,22 +4881,22 @@
         <v>79</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>104</v>
+        <v>232</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4844,22 +4904,22 @@
         <v>79</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>106</v>
+        <v>211</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>96</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>100</v>
+      <c r="F21" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4867,159 +4927,228 @@
         <v>79</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="G22" s="25" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="26"/>
+      <c r="A23" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="B23" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>177</v>
+        <v>211</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27" t="s">
-        <v>172</v>
+      <c r="F23" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="26"/>
+      <c r="A24" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="B24" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>178</v>
+        <v>212</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27" t="s">
-        <v>173</v>
+      <c r="F24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="26"/>
+      <c r="A25" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="B25" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>179</v>
+        <v>213</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="26"/>
       <c r="B26" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>110</v>
+        <v>213</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>172</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>115</v>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="A27" s="26"/>
       <c r="B27" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>84</v>
+        <v>213</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>173</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="25" t="s">
-        <v>109</v>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="26"/>
       <c r="B28" s="26" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>125</v>
+        <v>236</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="26"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="B29" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>176</v>
+        <v>213</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="27" t="s">
-        <v>126</v>
+      <c r="F29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="26"/>
+      <c r="G31" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="26"/>
+      <c r="G32" s="27" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5059,13 +5188,13 @@
         <v>73</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -5073,13 +5202,13 @@
         <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -5087,14 +5216,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>88</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
@@ -6004,4 +6129,965 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="1007" width="8.75" customWidth="1"/>
+    <col min="1008" max="1025" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="8">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="8">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="8">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="8">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="8">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="8">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="8">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="8">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="8">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="8">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="8">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="8">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="8">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="8">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="8">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="8">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="8">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="8">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="8">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="8">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="8">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="8">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="8">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="8">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="8">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="8">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="8">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="8">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="8">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="8">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="8">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="8">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="8">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="8">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="8">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="8"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="8">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="8"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="8">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="8">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="8">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="8"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="8">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="8">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="8">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="8">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="8">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="8"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="8"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="8">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="8"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="8"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="8">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B66" s="8"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="8"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="8">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B67" s="8"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="8"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="8">
+        <f t="shared" ref="A68:A102" si="1">A67+1</f>
+        <v>66</v>
+      </c>
+      <c r="B68" s="8"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="8">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B69" s="8"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="8"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="8">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B70" s="8"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="8"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="8">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B71" s="8"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="8"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="8">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="8"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="8">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B73" s="8"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="8"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="8">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B74" s="8"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="8"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="8">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B75" s="8"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" s="8">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B76" s="8"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="8"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="8">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B77" s="8"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="8"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="8">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B78" s="8"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="8"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="8">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B79" s="8"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="8"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="8">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B80" s="8"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="8"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="8">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B81" s="8"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="8"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="8">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B82" s="8"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="8"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="8">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B83" s="8"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="8"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="8">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B84" s="8"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="8"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="8">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B85" s="8"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="8"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="8">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B86" s="8"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="8"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="8">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B87" s="8"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="8"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="8">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B88" s="8"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="8"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="8">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B89" s="8"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="8"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="8">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B90" s="8"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="8"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="8">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B91" s="8"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="8"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="8">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B92" s="8"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="8"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="8">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B93" s="8"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="8"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="8">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B94" s="8"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="8"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="8">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B95" s="8"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="8"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="8">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B96" s="8"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="8"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="8">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B97" s="8"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="8"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="8">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B98" s="8"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="8"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="8">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B99" s="8"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="8"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="8">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B100" s="8"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="8"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="8">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B101" s="8"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="8"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B102" s="8"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" fitToWidth="0" cellComments="asDisplayed"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/template/Cisco_UCS/UCSチェックシート.xlsx
+++ b/template/Cisco_UCS/UCSチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="645"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -1924,7 +1924,7 @@
   </sheetPr>
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="90" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -3461,7 +3461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4519,18 +4519,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
+    <sheetView zoomScale="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="4" width="33.25" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="8.625" customWidth="1"/>
-    <col min="7" max="7" width="53" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="53" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="10" width="13.375" customWidth="1"/>
     <col min="11" max="1026" width="7.375" customWidth="1"/>
   </cols>
@@ -4576,13 +4574,13 @@
         <v>74</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4596,12 +4594,12 @@
       <c r="D5" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4615,12 +4613,12 @@
       <c r="D6" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="26"/>
+      <c r="F6" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4634,12 +4632,12 @@
       <c r="D7" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4655,12 +4653,12 @@
       <c r="D8" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="28" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4674,12 +4672,12 @@
       <c r="D9" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="26"/>
+      <c r="F9" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4693,12 +4691,12 @@
       <c r="D10" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="26"/>
+      <c r="F10" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4714,12 +4712,12 @@
       <c r="D11" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="25" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
@@ -4735,12 +4733,12 @@
       <c r="D12" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="25" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4754,12 +4752,12 @@
       <c r="D13" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="26"/>
+      <c r="F13" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="28" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4773,11 +4771,11 @@
       <c r="D14" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="26"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="26"/>
@@ -4790,11 +4788,11 @@
       <c r="D15" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="26"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="26"/>
@@ -4807,11 +4805,11 @@
       <c r="D16" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="26"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
@@ -4826,14 +4824,14 @@
       <c r="D17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4847,12 +4845,12 @@
       <c r="D18" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="26"/>
+      <c r="F18" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4868,12 +4866,12 @@
       <c r="D19" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="25" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4889,14 +4887,14 @@
       <c r="D20" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4912,14 +4910,14 @@
       <c r="D21" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4935,14 +4933,14 @@
       <c r="D22" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4958,14 +4956,14 @@
       <c r="D23" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4981,14 +4979,14 @@
       <c r="D24" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5004,12 +5002,12 @@
       <c r="D25" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5"/>
+      <c r="F25" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="25" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5023,12 +5021,12 @@
       <c r="D26" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="26"/>
+      <c r="F26" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5042,12 +5040,12 @@
       <c r="D27" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="26"/>
+      <c r="F27" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5061,12 +5059,12 @@
       <c r="D28" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="26"/>
+      <c r="F28" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F28" s="26"/>
-      <c r="G28" s="27" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
@@ -5082,14 +5080,14 @@
       <c r="D29" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5105,12 +5103,12 @@
       <c r="D30" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5"/>
+      <c r="F30" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="25" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5124,12 +5122,12 @@
       <c r="D31" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="26"/>
+      <c r="F31" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F31" s="26"/>
-      <c r="G31" s="27" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5143,12 +5141,12 @@
       <c r="D32" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="26"/>
+      <c r="F32" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="27" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/template/Cisco_UCS/UCSチェックシート.xlsx
+++ b/template/Cisco_UCS/UCSチェックシート.xlsx
@@ -1452,7 +1452,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1590,6 +1590,9 @@
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2420,15 +2423,15 @@
     <row r="26" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="21"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
@@ -3461,7 +3464,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3477,15 +3482,15 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
@@ -3547,7 +3552,7 @@
       <c r="C4" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="46" t="s">
         <v>183</v>
       </c>
       <c r="E4" s="44" t="s">
